--- a/ProductMatch/TCD/ProductMatch_2016.xlsx
+++ b/ProductMatch/TCD/ProductMatch_2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\TCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E4452B-6618-47C1-AB29-B72BFAE32DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CA66DE-0C85-4920-9E0B-C342A49E4D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A0DCF008-3656-4165-8E65-EA52974B7C12}"/>
   </bookViews>
@@ -33,18 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
-    <t>Product Code</t>
-  </si>
-  <si>
-    <t>Product Description</t>
-  </si>
-  <si>
-    <t>CPC2.1 Code</t>
-  </si>
-  <si>
-    <t>CPC 2.1 Description</t>
-  </si>
-  <si>
     <t>Produits de l'agriculture vivrière</t>
   </si>
   <si>
@@ -416,14 +404,34 @@
   </si>
   <si>
     <t>090</t>
+  </si>
+  <si>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>ProductDescription</t>
+  </si>
+  <si>
+    <t>CPC21Code</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -451,9 +459,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,360 +779,363 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA722D7-D3F5-436B-A04C-6987DD6C82FF}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="A1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,13 +1143,13 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1145,13 +1157,13 @@
         <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,13 +1171,13 @@
         <v>121</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1173,13 +1185,13 @@
         <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1187,13 +1199,13 @@
         <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,13 +1213,13 @@
         <v>140</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,13 +1227,13 @@
         <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,13 +1241,13 @@
         <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1243,13 +1255,13 @@
         <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,7 +1269,7 @@
         <v>170</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C35">
         <v>0</v>
